--- a/dat/B. TECH. I SEM DEC 19.xlsx
+++ b/dat/B. TECH. I SEM DEC 19.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sakshi\Study\website\Academic\Academic\public\dat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sakshi\Study\website\Academic19-23\public\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1176" yWindow="1176" windowWidth="11520" windowHeight="7872" activeTab="2"/>
+    <workbookView xWindow="1176" yWindow="1176" windowWidth="11520" windowHeight="7872" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="C S" sheetId="16" r:id="rId1"/>
@@ -2652,16 +2652,13 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2672,6 +2669,9 @@
     </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2691,361 +2691,7 @@
     <cellStyle name="Normal 4" xfId="1"/>
     <cellStyle name="Normal 6" xfId="2"/>
   </cellStyles>
-  <dxfs count="104">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="84">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3428,6 +3074,124 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3898,7 +3662,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{301FFCFF-B459-46FA-87AF-8104A3FAC07F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{301FFCFF-B459-46FA-87AF-8104A3FAC07F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11394,62 +11158,62 @@
     <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <conditionalFormatting sqref="Y8:Y64 AB8:AB64">
-    <cfRule type="cellIs" dxfId="103" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AD64">
-    <cfRule type="cellIs" dxfId="102" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Q64">
-    <cfRule type="cellIs" dxfId="101" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J64 M8:M64 S8:S64">
-    <cfRule type="cellIs" dxfId="100" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:V64">
-    <cfRule type="cellIs" dxfId="99" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J64">
-    <cfRule type="cellIs" dxfId="98" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M64">
-    <cfRule type="cellIs" dxfId="97" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P64">
-    <cfRule type="cellIs" dxfId="96" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:S64">
-    <cfRule type="cellIs" dxfId="95" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K64">
-    <cfRule type="cellIs" dxfId="94" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H64">
-    <cfRule type="cellIs" dxfId="93" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N64">
-    <cfRule type="cellIs" dxfId="92" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11484,76 +11248,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="50" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
-      <c r="U1" s="162"/>
-      <c r="V1" s="162"/>
-      <c r="W1" s="162"/>
-      <c r="X1" s="162"/>
-      <c r="Y1" s="162"/>
-      <c r="Z1" s="162"/>
-      <c r="AA1" s="162"/>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="162"/>
-      <c r="AD1" s="162"/>
-      <c r="AE1" s="162"/>
-      <c r="AF1" s="162"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="160"/>
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="160"/>
     </row>
     <row r="2" spans="1:32" s="50" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="162"/>
-      <c r="S2" s="162"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="162"/>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="162"/>
-      <c r="AD2" s="162"/>
-      <c r="AE2" s="162"/>
-      <c r="AF2" s="162"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="160"/>
+      <c r="Z2" s="160"/>
+      <c r="AA2" s="160"/>
+      <c r="AB2" s="160"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="160"/>
     </row>
     <row r="3" spans="1:32" s="50" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="152" t="s">
@@ -16333,14 +16097,19 @@
       <c r="AF51" s="8"/>
     </row>
     <row r="54" spans="1:32" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="160"/>
-      <c r="C54" s="161"/>
-      <c r="D54" s="161"/>
-      <c r="E54" s="161"/>
-      <c r="F54" s="161"/>
+      <c r="B54" s="161"/>
+      <c r="C54" s="162"/>
+      <c r="D54" s="162"/>
+      <c r="E54" s="162"/>
+      <c r="F54" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A2:AF2"/>
     <mergeCell ref="A3:AF3"/>
@@ -16353,74 +16122,69 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="Q8:Q50">
-    <cfRule type="cellIs" dxfId="91" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:S50">
-    <cfRule type="cellIs" dxfId="90" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:T50 W8:W50">
-    <cfRule type="cellIs" dxfId="89" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:V50">
-    <cfRule type="cellIs" dxfId="88" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y50">
-    <cfRule type="cellIs" dxfId="87" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:Z50">
-    <cfRule type="cellIs" dxfId="86" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AB50">
-    <cfRule type="cellIs" dxfId="85" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H50">
-    <cfRule type="cellIs" dxfId="84" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J50">
-    <cfRule type="cellIs" dxfId="83" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K50">
-    <cfRule type="cellIs" dxfId="82" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M50">
-    <cfRule type="cellIs" dxfId="81" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N50">
-    <cfRule type="cellIs" dxfId="80" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P50">
-    <cfRule type="cellIs" dxfId="79" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16437,8 +16201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView topLeftCell="A22" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AD30" sqref="AD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.44140625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16464,76 +16228,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
-      <c r="U1" s="162"/>
-      <c r="V1" s="162"/>
-      <c r="W1" s="162"/>
-      <c r="X1" s="162"/>
-      <c r="Y1" s="162"/>
-      <c r="Z1" s="162"/>
-      <c r="AA1" s="162"/>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="162"/>
-      <c r="AD1" s="162"/>
-      <c r="AE1" s="162"/>
-      <c r="AF1" s="162"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="160"/>
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="160"/>
     </row>
     <row r="2" spans="1:32" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="162"/>
-      <c r="S2" s="162"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="162"/>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="162"/>
-      <c r="AD2" s="162"/>
-      <c r="AE2" s="162"/>
-      <c r="AF2" s="162"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="160"/>
+      <c r="Z2" s="160"/>
+      <c r="AA2" s="160"/>
+      <c r="AB2" s="160"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="160"/>
     </row>
     <row r="3" spans="1:32" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="152" t="s">
@@ -21941,117 +21705,117 @@
     <mergeCell ref="C4:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="Y8:Y55 AB8:AB55">
-    <cfRule type="cellIs" dxfId="78" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AD55">
-    <cfRule type="cellIs" dxfId="77" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:W55 Z8:Z55 T8:T35 T37:T42">
-    <cfRule type="cellIs" dxfId="76" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H55 K8:K55 N8:N55 Q8:Q55">
-    <cfRule type="cellIs" dxfId="75" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T43:T55">
-    <cfRule type="cellIs" dxfId="74" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:V55">
-    <cfRule type="cellIs" dxfId="73" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R52">
-    <cfRule type="cellIs" dxfId="72" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P55">
-    <cfRule type="cellIs" dxfId="71" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:S55">
-    <cfRule type="cellIs" dxfId="70" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J55">
-    <cfRule type="cellIs" dxfId="69" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M55">
-    <cfRule type="cellIs" dxfId="68" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I55">
-    <cfRule type="cellIs" dxfId="67" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T36">
-    <cfRule type="cellIs" dxfId="66" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y56 AB56">
-    <cfRule type="cellIs" dxfId="19" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD56">
-    <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W56 Z56 T56">
-    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56 K56 N56 Q56">
-    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V56">
-    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P56">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S56">
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M56">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22086,40 +21850,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="163" t="s">
         <v>488</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="164"/>
-      <c r="T1" s="164"/>
-      <c r="U1" s="164"/>
-      <c r="V1" s="164"/>
-      <c r="W1" s="164"/>
-      <c r="X1" s="164"/>
-      <c r="Y1" s="164"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="164"/>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="164"/>
-      <c r="AD1" s="164"/>
-      <c r="AE1" s="164"/>
-      <c r="AF1" s="164"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="163"/>
+      <c r="AA1" s="163"/>
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="163"/>
+      <c r="AD1" s="163"/>
+      <c r="AE1" s="163"/>
+      <c r="AF1" s="163"/>
     </row>
     <row r="2" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="149"/>
@@ -22156,25 +21920,25 @@
       <c r="AF2" s="149"/>
     </row>
     <row r="3" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="165"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
+      <c r="A3" s="164"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
       <c r="J3" s="30"/>
       <c r="K3" s="30"/>
       <c r="L3" s="30"/>
       <c r="M3" s="30"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="166"/>
+      <c r="N3" s="165"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="165"/>
       <c r="T3" s="29"/>
       <c r="U3" s="29"/>
       <c r="V3" s="29"/>
@@ -28120,14 +27884,22 @@
       <c r="AF62" s="66"/>
     </row>
     <row r="64" spans="1:32" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="163"/>
-      <c r="C64" s="163"/>
-      <c r="D64" s="163"/>
-      <c r="E64" s="163"/>
-      <c r="F64" s="163"/>
+      <c r="B64" s="166"/>
+      <c r="C64" s="166"/>
+      <c r="D64" s="166"/>
+      <c r="E64" s="166"/>
+      <c r="F64" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="N3:S3"/>
@@ -28137,62 +27909,54 @@
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="C4:C7"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J62 M8:M62">
-    <cfRule type="cellIs" dxfId="65" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N62 S8:S62">
-    <cfRule type="cellIs" dxfId="64" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Q62">
-    <cfRule type="cellIs" dxfId="63" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:T62 W8:W62">
-    <cfRule type="cellIs" dxfId="62" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:V62 Y8:Y62">
-    <cfRule type="cellIs" dxfId="61" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:Z62">
-    <cfRule type="cellIs" dxfId="60" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AB62">
-    <cfRule type="cellIs" dxfId="59" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H62">
-    <cfRule type="cellIs" dxfId="58" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K62">
-    <cfRule type="cellIs" dxfId="57" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P62">
-    <cfRule type="cellIs" dxfId="56" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33751,6 +33515,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="T4:V4"/>
@@ -33767,45 +33532,44 @@
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <conditionalFormatting sqref="AB8:AB52 AE8:AE52">
-    <cfRule type="cellIs" dxfId="55" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8:AC52 Z8:Z52">
-    <cfRule type="cellIs" dxfId="54" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8:AG52">
-    <cfRule type="cellIs" dxfId="53" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H52 K8:K52 Q8:Q52">
-    <cfRule type="cellIs" dxfId="52" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P52 J8:J52 S8:S52 M8:M52">
-    <cfRule type="cellIs" dxfId="51" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N52">
-    <cfRule type="cellIs" dxfId="50" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:T52">
-    <cfRule type="cellIs" dxfId="49" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:V52">
-    <cfRule type="cellIs" dxfId="48" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33836,76 +33600,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
-      <c r="U1" s="162"/>
-      <c r="V1" s="162"/>
-      <c r="W1" s="162"/>
-      <c r="X1" s="162"/>
-      <c r="Y1" s="162"/>
-      <c r="Z1" s="162"/>
-      <c r="AA1" s="162"/>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="162"/>
-      <c r="AD1" s="162"/>
-      <c r="AE1" s="162"/>
-      <c r="AF1" s="162"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="160"/>
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="160"/>
     </row>
     <row r="2" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="162"/>
-      <c r="S2" s="162"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="162"/>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="162"/>
-      <c r="AD2" s="162"/>
-      <c r="AE2" s="162"/>
-      <c r="AF2" s="162"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="160"/>
+      <c r="Z2" s="160"/>
+      <c r="AA2" s="160"/>
+      <c r="AB2" s="160"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="160"/>
     </row>
     <row r="3" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="152" t="s">
@@ -34487,6 +34251,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N4:P4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="W4:Y4"/>
@@ -34503,55 +34268,54 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <conditionalFormatting sqref="Y8:Y9 AB8:AB9">
-    <cfRule type="cellIs" dxfId="47" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AD9">
-    <cfRule type="cellIs" dxfId="46" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:W9 Z8:Z9 T8:T9">
-    <cfRule type="cellIs" dxfId="45" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H9 K8:K9 N8:N9 Q8:Q9">
-    <cfRule type="cellIs" dxfId="44" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:V9">
-    <cfRule type="cellIs" dxfId="43" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P9">
-    <cfRule type="cellIs" dxfId="42" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:S9">
-    <cfRule type="cellIs" dxfId="41" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J9">
-    <cfRule type="cellIs" dxfId="40" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M9">
-    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I9">
-    <cfRule type="cellIs" dxfId="38" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34564,8 +34328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF58"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="AD29" sqref="AD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -35149,11 +34913,11 @@
         <v>92</v>
       </c>
       <c r="O9" s="108">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="P9" s="94">
         <f t="shared" ref="P9:P55" si="2">SUM(N9:O9)</f>
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="Q9" s="108">
         <v>44</v>
@@ -35200,7 +34964,7 @@
       </c>
       <c r="AD9" s="94">
         <f t="shared" ref="AD9:AD55" si="7">AB9+Y9+V9+P9+M9+J9</f>
-        <v>697</v>
+        <v>725</v>
       </c>
       <c r="AE9" s="63" t="s">
         <v>507</v>
@@ -40169,11 +39933,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="A2:AF2"/>
-    <mergeCell ref="A1:AF1"/>
     <mergeCell ref="B58:E58"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="T4:V4"/>
@@ -40182,48 +39941,53 @@
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="C4:C7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="A2:AF2"/>
+    <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A3:AF3"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="E4:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J55 M8:M55 P8:P55">
-    <cfRule type="cellIs" dxfId="37" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N55 S8:S55">
-    <cfRule type="cellIs" dxfId="36" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:T55 W8:W55">
-    <cfRule type="cellIs" dxfId="35" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:V55 Y8:Y55">
-    <cfRule type="cellIs" dxfId="34" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:Z55">
-    <cfRule type="cellIs" dxfId="33" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AB55">
-    <cfRule type="cellIs" dxfId="32" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H55 K8:K55">
-    <cfRule type="cellIs" dxfId="31" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Q55">
-    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>18</formula>
     </cfRule>
   </conditionalFormatting>
